--- a/thesis/figures/crowd_flower_dataset_distribution.xlsx
+++ b/thesis/figures/crowd_flower_dataset_distribution.xlsx
@@ -175,183 +175,66 @@
             <c:idx val="0"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="424100"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="AAAAAA"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00B0F0"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="3CA600"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF80A9"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFFF00"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF2600"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="942092"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00FA00"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00FDFF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="AB7942"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="11"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0432FF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="12"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -458,11 +341,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="618375520"/>
-        <c:axId val="618379600"/>
+        <c:axId val="-1757876496"/>
+        <c:axId val="-1757871792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="618375520"/>
+        <c:axId val="-1757876496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -505,7 +388,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="618379600"/>
+        <c:crossAx val="-1757871792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -513,7 +396,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="618379600"/>
+        <c:axId val="-1757871792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -563,7 +446,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="618375520"/>
+        <c:crossAx val="-1757876496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
